--- a/samples/SA-عينة-محلات-حلويات-preview.xlsx
+++ b/samples/SA-عينة-محلات-حلويات-preview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="387">
   <si>
     <t>GoogleMaps Links</t>
   </si>
@@ -40,310 +40,13 @@
     <t>Website</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%86%D8%A7%D8%A8%D9%84+%D8%A7%D9%84%D8%B3%D9%84%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c3d3b046a12297:0x7c204cd9db19a10d!8m2!3d21.5391419!4d39.2975704!16s%2Fg%2F11smmp421j!19sChIJlyKhRrDTwxURDaEZ29lMIHw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%A3%D8%B5%D9%84+%D8%A7%D9%84%D8%AD%D9%84%D8%A7+%D9%84%D9%84%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+-+%D9%81%D8%B1%D8%B9+%D8%B3%D9%84%D8%B7%D8%A7%D9%86%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f05584ae0670d:0xd405d38984d2c1c3!8m2!3d24.59919!4d46.6932618!16s%2Fg%2F11rpzb_r9r!19sChIJDWfgSlgFLz4Rw8HShInTBdQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%B4%D9%87%D8%B1%D8%B2%D8%A7%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15e9890e0ebf7ffb:0xbeb746fabecc9e59!8m2!3d21.275652!4d40.4141209!16s%2Fg%2F11tt1lzx3s!19sChIJ-3-_Dg6J6RURWZ7MvvpGt74?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%88%D9%82%D9%81%E2%80%AD/data=!4m7!3m6!1s0x3e2ee30041e81eed:0x95d636e23c241b9a!8m2!3d24.7278622!4d46.6287345!16s%2Fg%2F11vrzn_bwd!19sChIJ7R7oQQDjLj4RmhskPOI21pU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Patisserie+Mo+Mashat+%7C+%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D9%85%D8%AD%D9%85%D8%AF+%D9%85%D8%B4%D8%A7%D8%B7%E2%80%AD/data=!4m7!3m6!1s0x15c3d911ea48c341:0x40652e21bbe60435!8m2!3d21.6823729!4d39.119353!16s%2Fg%2F11sc153qbq!19sChIJQcNI6hHZwxURNQTmuyEuZUA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D9%88%D9%83%D8%AA%D9%8A%D9%84+%D9%88%D8%B4%D9%82%D9%81%E2%80%AD/data=!4m7!3m6!1s0x15ef45343d0fca2b:0x2f38952e42a7b838!8m2!3d20.0088577!4d41.4613419!16s%2Fg%2F11l5lyh_k2!19sChIJK8oPPTRF7xUROLinQi6VOC8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%B5%D9%8A%D8%B1%D8%A7%D8%AA+%D8%A7%D9%81%D9%88%D9%83%D8%A7%D8%AF%D9%88%E2%80%AD/data=!4m7!3m6!1s0x15c1630ae8e33ac3:0x8dd66eecd21f1c9b!8m2!3d21.7965491!4d39.0863427!16s%2Fg%2F11s66999sl!19sChIJwzrj6ApjwRURmxwf0uxu1o0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%A7%D9%84%D8%B4%D8%B1%D9%82%E2%80%AD/data=!4m7!3m6!1s0x15646783c2036347:0xa30a005695033155!8m2!3d29.6241182!4d43.5177097!16s%2Fg%2F11t71sj7t2!19sChIJR2MDwoNnZBURVTEDlVYACqM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%A8%D8%B2+%D8%B9%D8%B1%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f0f006a371551:0x9397537d2af5d35a!8m2!3d24.5837473!4d46.6869941!16s%2Fg%2F11ld0bw32c!19sChIJURU3agAPLz4RWtP1Kn1Tl5M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D9%86%D8%A7%D9%86%D8%A7%D8%B3+%D9%84%D9%84%D8%B9%D8%B5%D8%A7%D8%A6%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c2045b4c7833d1:0xeb9eff94260ba38d!8m2!3d21.3998302!4d39.8685094!16s%2Fg%2F11cksfd062!19sChIJ0TN4TFsEwhURjaMLJpT_nus?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%A8%D9%82%D8%AF%D8%A7%D8%B4+%D8%B3%D9%8A%D9%87%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e49fe419f2e8c29:0xb10032921d419e41!8m2!3d26.4765477!4d50.0433672!16s%2Fg%2F119wlls0b!19sChIJKYwun0H-ST4RQZ5BHZIyALE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%86%D8%B9+%D8%A7%D9%84%D8%B9%D8%B5%D9%8A%D8%B1+%D8%A7%D9%84%D8%B7%D8%A7%D8%B2%D8%AC%D9%87%E2%80%AD/data=!4m7!3m6!1s0x1607f5f13bcbc61f:0xdfdb5ac1cbf82b48!8m2!3d16.9719375!4d42.8361875!16s%2Fg%2F11pm7j1bsf!19sChIJH8bLO_H1BxYRSCv4y8Fa298?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%B5%D8%A7%D8%A6%D8%B1+%D9%84%D9%85%D9%89%E2%80%AD/data=!4m7!3m6!1s0x1581e3dd21f43011:0xe9669eb7b5f42dee!8m2!3d26.322836!4d43.962642!16s%2Fg%2F11r99kg6s9!19sChIJETD0Id3jgRUR7i30tbeeZuk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%83%D9%86%D9%81%D8%A7%D9%86%D9%8A+%D8%A7%D9%84%D8%A3%D8%B5%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e3647cf0be8cdb1:0xb58ce6b84c764f27!8m2!3d25.9340838!4d49.6574977!16s%2Fg%2F11rpd_5hhh!19sChIJsc3oC89HNj4RJ092TLjmjLU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%A7%D8%A8%D8%B2+%D8%B2%D9%8A%D9%86+%D8%A7%D9%84%D8%AF%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e49fe4197467873:0x16b146a6bf7e7de3!8m2!3d26.475243!4d50.0434532!16s%2Fg%2F11b725df30!19sChIJc3hGl0H-ST4R431-v6ZGsRY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D9%8A%D9%85%D9%88%D9%86+%D9%88%D9%86%D8%B9%D9%86%D8%A7%D8%B9+%D9%84%D9%84%D8%B9%D8%B5%D8%A7%D8%A6%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x151007b5bd8e8b77:0xed8cdf7dd9089e0!8m2!3d31.3368022!4d37.3364443!16s%2Fg%2F11cspwffk3!19sChIJd4uOvbUHEBUR4ImQ3ffN2A4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D8%A7%D9%88+%D9%84%D8%A7%D9%88%E2%80%AD/data=!4m7!3m6!1s0x3e2f02d3fc5fb2a7:0xe8d1e01fd87ac5c4!8m2!3d24.7115009!4d46.6751434!16s%2Fg%2F11f3wcv391!19sChIJp7Jf_NMCLz4RxMV62B_g0eg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%B5%D8%A7%D8%A6%D8%B1+%D8%A7%D9%84%D8%B9%D9%86%D8%A8+%D8%A7%D9%84%D8%A7%D8%AD%D9%85%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2547d3a5ad9afd:0xdf82989be1875f29!8m2!3d24.1046479!4d47.2814493!16s%2Fg%2F11rygzd47_!19sChIJ_ZqtpdNHJT4RKV-H4ZuYgt8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%A7%D8%A8%D8%B2+%D9%88%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%A3%D8%B1%D9%8A%D8%A7%D9%81+%D8%A7%D9%84%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15100501ec7387ef:0xde1b8ab21c590ffa!8m2!3d31.3349529!4d37.3837455!16s%2Fg%2F11snhzqjr9!19sChIJ74dz7AEFEBUR-g9ZHLKKG94?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D8%AC%D9%8A+%D8%B9%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49e72e6608a3af:0x940548f34985489c!8m2!3d26.3042663!4d50.17072!16s%2Fg%2F11kplf01mg!19sChIJr6MIZi7nST4RnEiFSfNIBZQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/deem+sweet/data=!4m7!3m6!1s0xa8a8d0c3ea74d94f:0x732814e2ef652c35!8m2!3d26.3672!4d43.1483897!16s%2Fg%2F11lccb0tl3!19sChIJT9l06sPQqKgRNSxl7-IUKHM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%A3%D8%B3%D8%B7%D9%88%D8%B1%D8%A9+%D9%84%D9%84%D8%B9%D8%B5%D8%A7%D8%A6%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c219dcb808cb83:0xce5fffbb877f49bc!8m2!3d21.4054375!4d39.7038125!16s%2Fg%2F11crxs2lhh!19sChIJg8sIuNwZwhURvEl_h7v_X84?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%81%D9%88%D9%83%D8%A7%D8%AF%D9%88+%D8%AC%D9%88%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x15c1a1cd4c5114cd:0x994fd0a1fdef3203!8m2!3d21.9757132!4d39.3613834!16s%2Fg%2F11hbv_5tkh!19sChIJzRRRTM2hwRURAzLv_aHQT5k?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%B5%D9%8A%D8%B1%D8%A7%D8%AA+%D9%86%D8%AC%D9%85%D8%A9+%D8%A7%D9%84%D9%88%D8%B2%D9%8A%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%B1%D9%88%D8%A7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3cdfc491ad8b7:0xe87ef7c3716c0d97!8m2!3d21.4702583!4d39.2662261!16s%2Fg%2F11tj2d5m2b!19sChIJt9gaSfzNwxURlw1sccP3fug?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D8%A8%D9%88+%D8%B1%D8%A7%D8%B3+%D8%B3%D9%85%D9%86+%D8%B9%D9%84%D9%89+%D8%B9%D8%B3%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15c2035e8393ec17:0x821cb253593d0fa4!8m2!3d21.4399234!4d39.8343824!16s%2Fg%2F11ggk3bcg1!19sChIJF-yTg14DwhURpA89WVOyHII?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B2%D9%8A%D9%86+%D9%83%D9%88%D9%83%D9%8A%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x3e35ffbd66c0ad25:0xe780f8cd5109bc20!8m2!3d26.539185!4d50.0014025!16s%2Fg%2F11s42s2bcm!19sChIJJa3AZr3_NT4RILwJUc34gOc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%88%D9%84%D9%8A%D9%81%D8%A9+%D9%84%D9%84%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15ea27164137763d:0x35b85047d9469420!8m2!3d21.3529096!4d40.4280087!16s%2Fg%2F11pdfxyhzv!19sChIJPXY3QRYn6hURIJRG2UdQuDU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%B3%D8%B9%D8%AF%D8%A7%D9%84%D8%AF%D9%8A%D9%86+%28%D8%A7%D9%84%D8%B5%D9%81%D8%A71%29+saadeddin+pastry%E2%80%AD/data=!4m7!3m6!1s0x15c3d101d48c3615:0x274cd1cbf1bcbdb5!8m2!3d21.5778183!4d39.1961468!16s%2Fg%2F11bbw_xrq5!19sChIJFTaM1AHRwxURtb288cvRTCc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D9%82%D9%8A%D9%85%D8%A7%D8%AA+%D9%85%D8%A7%D9%85%D8%A7+%D9%86%D9%88%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3cf98154e5f65:0x9bd56135c15f55c7!8m2!3d21.5144396!4d39.2248993!16s%2Fg%2F11svk7hn5b!19sChIJZV9OFZjPwxURx1VfwTVh1Zs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%A7%D8%AD%D9%84%D8%A7+%D8%A7%D9%84%D8%AD%D9%84%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15fb51a21778e099:0xc7cefe4ae606bfcc!8m2!3d18.319324!4d42.6916356!16s%2Fg%2F11q22fx8f8!19sChIJmeB4F6JR-xURzL8G5kr-zsc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%A8%D8%B2+%D9%86%D9%88%D8%B1+%D8%A7%D9%84%D8%B5%D8%A8%D8%A7%D8%AD%E2%80%AD/data=!4m7!3m6!1s0x3e361e576a5b0d5b:0xa9b1fed7f28e1537!8m2!3d26.245231!4d49.9814348!16s%2Fg%2F11f24x3f5k!19sChIJWw1balceNj4RNxWO8tf-sak?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%A7%D8%A8%D8%B2+%D8%A7%D9%84%D8%AD%D8%B7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x3e2f038e17985f63:0x88ae276700599141!8m2!3d24.6941192!4d46.7226815!16s%2Fg%2F1tf8rkwb!19sChIJY1-YF44DLz4RQZFZAGcnrog?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B9%D9%85%D9%88%D9%84%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15a9adfb9a5cfe79:0xd420c01717dd380a!8m2!3d28.3623068!4d36.5696331!16s%2Fg%2F11tbwhsv19!19sChIJef5cmvutqRURCjjdFxfAINQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Mirad+Bakery+%D9%85%D8%AE%D8%A8%D8%B2+%D9%85%D9%8A%D8%B1%D8%A7%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15c096f6b97e0211:0xbd0aa27b11cf13c!8m2!3d22.80228!4d39.0338257!16s%2Fg%2F11g9sy7cvq!19sChIJEQJ-ufaWwBURPPEcsSeq0As?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%88%D8%B2%D9%8A%D9%86+%D9%84%D9%84%D8%B4%D9%88%D9%83%D9%88%D9%84%D8%A7%D8%AA%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15fb57d3a004a11b:0x964a640538d6b421!8m2!3d18.287635!4d42.6899812!16s%2Fg%2F11rycpgln7!19sChIJG6EEoNNX-xURIbTWOAVkSpY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%A7%D8%B3%D9%83%D9%86+%D8%B1%D9%88%D8%A8%D9%86%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x3e2f0599f5f78c9f:0x916871430eea5a43!8m2!3d24.6300163!4d46.6900739!16s%2Fg%2F11h75pr31z!19sChIJn4z39ZkFLz4RQ1rqDkNxaJE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%88%D9%84+%D8%A7%D9%84%D8%B4%D9%8A%D8%AE:%D8%AC%D8%AF%D8%A9+%D8%A7%D9%84%D8%A7%D8%B3%D9%83%D8%A7%D9%86+%D8%A7%D9%84%D8%AC%D9%86%D9%88%D8%A8%D9%8A+%D9%85%D8%B4%D8%B1%D9%88%D8%B9+%D8%A7%D9%84%D8%A7%D9%85%D9%8A%D8%B1+%D9%81%D9%88%D8%A7%D8%B2+%D8%AF%D9%88%D8%A7%D8%B1+%D8%A7%D9%84%D8%A8%D9%84%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3cb644cfe220b:0x1abe5e3d3f303821!8m2!3d21.4260755!4d39.2980048!16s%2Fg%2F11v3_s7dtl!19sChIJCyL-TGTLwxURITgwPz1evho?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%A7%D9%84%D9%85%D9%85%D9%84%D9%83%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f009dc384b72d:0x39a1c89f62a179ee!8m2!3d24.745705!4d46.823718!16s%2Fg%2F11cmbf9zsk!19sChIJLbeEw50ALz4R7nmhYp_IoTk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%BA%D8%B5%D9%86+%D8%A7%D9%84%D8%B3%D9%83%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15823d006e508cb7:0x7169253c0e2dfcab!8m2!3d26.1472761!4d43.6045938!16s%2Fg%2F11vswcmxlh!19sChIJt4xQbgA9ghURq_wtDjwlaXE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%88%D9%84%D8%AF+%D8%A8%D9%8A%D9%8A%D8%B1+%D8%A7%D9%8A%D8%B3+%D9%83%D8%B1%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c3d1809d7f89fd:0x7f586373e5a211b4!8m2!3d21.5486356!4d39.1637239!16s%2Fg%2F11s47srhhz!19sChIJ_Yl_nYDRwxURtBGi5XNjWH8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%B5%D8%A7%D8%A6%D8%B1+%D8%B2%D9%87%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x157f58967b234609:0x7c510640159f96d!8m2!3d26.3285592!4d43.9988977!16s%2Fg%2F11cjy_bv1l!19sChIJCUYje5ZYfxURbflZAWQQxQc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Diplomat+Sweets+%2F+%D8%A7%D9%84%D8%AF%D8%A8%D9%84%D9%88%D9%85%D8%A7%D8%B3%D9%8A+%D9%84%D9%84%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2ee328f9959e5f:0x546b37a4ce1b1483!8m2!3d24.7800795!4d46.6626949!16s%2Fg%2F1pyqkyk12!19sChIJX56V-SjjLj4RgxQbzqQ3a1Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%8A%D9%83+%D8%A3%D9%88%D8%A7%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2effe481979dc1:0xfea473507de42966!8m2!3d24.7780534!4d46.7509856!16s%2Fg%2F11rvdgz0tn!19sChIJwZ2XgeT_Lj4RZinkfVBzpP4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%8A%D8%B3+%D9%87%D8%AF%D9%89%E2%80%AD/data=!4m7!3m6!1s0x15fb5f046acaccbd:0xd67fd88786272e5a!8m2!3d18.2051371!4d42.843047!16s%2Fg%2F11v3pqs442!19sChIJvczKagRf-xURWi4nhofYf9Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AC%D9%85%D9%8A%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x3e2f07251c0e2a3d:0x31735c34b0b3b5ce!8m2!3d24.6901453!4d46.8036944!16s%2Fg%2F11p6xhpw01!19sChIJPSoOHCUHLz4RzrWzsDRcczE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D8%B1%D8%A7%D9%88%D9%84%D8%AA%D9%89+%D9%82%D8%A8%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15bdbf24778d36f3:0x43cf56ab6843729e!8m2!3d24.4614015!4d39.60763!16s%2Fg%2F11tjmpyp20!19sChIJ8zaNdyS_vRURnnJDaKtWz0M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D9%88%D8%B9%D8%A9+%D9%84%D9%84%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%A8%D8%A7%D9%84%D8%B9%D8%B2%D9%8A%D8%B2%D9%8A%D8%A9-+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%E2%80%AD/data=!4m7!3m6!1s0x3e2f09f69290b30f:0x8488f664b21b740f!8m2!3d24.5854926!4d46.776762!16s%2Fg%2F11mbsv407b!19sChIJD7OQkvYJLz4RD3QbsmT2iIQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%A7%D8%A8%D9%88+%D8%A7%D9%84%D8%B1%D9%8A%D8%B4%E2%80%AD/data=!4m7!3m6!1s0x1581ee1522a8c1c9:0x6db85d6d4915a7de!8m2!3d26.1200516!4d43.9617193!16s%2Fg%2F11g6njc2j3!19sChIJycGoIhXugRUR3qcVSW1duG0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D8%B1%D9%88%D8%A7%D8%B2%D8%A9+%D8%A7%D9%84%D8%AE%D8%A8%D8%A7%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x3e49fb43c5f35dbb:0x66b2ac6b9f41eb70!8m2!3d26.4157899!4d50.1154313!16s%2Fg%2F11dz5474pg!19sChIJu13zxUP7ST4RcOtBn2ussmY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%A7%D8%B3%D9%83%D9%86+%D8%B1%D9%88%D8%A8%D9%86%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x15c3d09666b40407:0xf131cb14fa8ff536!8m2!3d21.6005628!4d39.1688755!16s%2Fg%2F11xvx0qbs!19sChIJBwS0ZpbQwxURNvWP-hTLMfE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Blue+Plate+%D9%85%D8%AE%D8%A8%D8%B2+%D9%88%D9%85%D9%82%D9%87%D9%89%E2%80%AD/data=!4m7!3m6!1s0x3e37974979987c3f:0x4d539b7d42548083!8m2!3d25.4206955!4d49.5668539!16s%2Fg%2F11hzxsn9dt!19sChIJP3yYeUmXNz4Rg4BUQn2bU00?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D8%B3%D8%AA%D9%82%E2%80%AD/data=!4m7!3m6!1s0x157f575f54a27929:0xa22d651e10e756bb!8m2!3d26.4129036!4d43.9245436!16s%2Fg%2F11rtq_rb45!19sChIJKXmiVF9XfxURu1bnEB5lLaI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%B4%D9%8A%D8%AE%D9%87+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6+%D8%B9%D8%B1%D9%82%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e2f1f181d583b15:0x1aa780b4e17444a4!8m2!3d24.6851776!4d46.585125!16s%2Fg%2F11q23js2gg!19sChIJFTtYHRgfLz4RpER04bSApxo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%BA%D8%B5%D8%A7%D9%86+%D8%A7%D9%84%D8%B9%D9%86%D8%A8+%D8%A7%D9%84%D8%AD%D8%B5%D9%8A%D9%86+%D8%A7%D9%84%D9%82%D8%A7%D8%A8%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15fee9c8a504ea17:0x3c145dee2909ad82!8m2!3d17.4914783!4d44.1898109!16s%2Fg%2F11t9w0nmfq!19sChIJF-oEpcjp_hURgq0JKe5dFDw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%A8%D8%B1+%D9%84%D9%84%D8%B9%D9%8A%D8%B4+%D8%A7%D9%84%D8%A8%D8%B1+%D9%88%D8%A7%D9%84%D8%A3%D8%A8%D9%8A%D8%B6+%D9%88%D8%BA%D9%8A%D8%B1%D9%87%D9%85%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15e98d1ddfb2073d:0x6a13a82f7aef2526!8m2!3d21.2593885!4d40.3895912!16s%2Fg%2F11jsh4sjt3!19sChIJPQey3x2N6RURJiXvei-oE2o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/barakathi+sweets+everything+10.5+riyal/data=!4m7!3m6!1s0x15c21b0d641dd929:0xc89887552f8a2fff!8m2!3d21.3758187!4d39.8102343!16s%2Fg%2F11g4gcwf4n!19sChIJKdkdZA0bwhUR_y-KL1WHmMg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%B5%D9%8A%D8%B1%D8%A7%D8%AA+%D9%85%D8%A7%D8%AC%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x3fd740af80abd49f:0x8a5072506b4bd1f9!8m2!3d28.4155383!4d45.9705684!16s%2Fg%2F119tdnhsm!19sChIJn9SrgK9A1z8R-dFLa1ByUIo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D9%88%D9%86+%D8%B2%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f0332df1d9b8b:0xae70b7882d37f49e!8m2!3d24.7061875!4d46.6886875!16s%2Fg%2F11fmc0h1t8!19sChIJi5sd3zIDLz4RnvQ3LYi3cK4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%A8%D8%B2+%D9%88%D9%81%D9%88%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x157f57f6b56ccc67:0x6c2acb325f85977!8m2!3d26.350931!4d43.9389733!16s%2Fg%2F11f3xynkxn!19sChIJZ8xstfZXfxURd1n4JbOswgY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%8A%D8%B3%D9%83%D8%B1%D9%8A%D9%85+%D8%A7%D8%B1%D9%86%D9%88%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x3e2efdf9ee6a5335:0x934c063c188a80d5!8m2!3d24.7903528!4d46.7423638!16s%2Fg%2F11p_0yrfzh!19sChIJNVNq7vn9Lj4R1YCKGDwGTJM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%A8%D9%8A%D9%83+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8+%D9%81%D8%B1%D8%B9+%D9%86%D9%85%D8%A7%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2f0fd15a304293:0x103a9bbc9aaef136!8m2!3d24.5638837!4d46.6824251!16s%2Fg%2F11h2jtjjsb!19sChIJk0IwWtEPLz4RNvGumrybOhA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%81%D9%88%D9%83%D8%A7%D8%AF%D9%88+%D9%82%D8%B5%D8%A8+%D9%81%D8%B1%D8%BA%D9%84%D9%8A+%28+%D8%A7%D8%A8%D8%B1%D9%82+%D8%A7%D9%84%D8%B1%D8%BA%D8%A7%D9%85%D8%A9+%29%E2%80%AD/data=!4m7!3m6!1s0x15c3d31f4906b9c3:0x46738d6b948f6270!8m2!3d21.5168241!4d39.266354!16s%2Fg%2F11vk8wyv5q!19sChIJw7kGSR_TwxURcGKPlGuNc0Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D8%A7%D9%81%D9%8A%D8%AA%D8%B1%D9%8A%D8%A7+%D8%A3%D8%B1%D9%86%D9%88%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15bdbf29bb940809:0x82e1f0302824dc6c!8m2!3d24.4812797!4d39.5760015!16s%2Fg%2F11g01dts9h!19sChIJCQiUuym_vRURbNwkKDDw4YI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D8%A7%D9%81%D9%8A%D8%AA%D8%A7+%D8%B9%D8%B5%D9%8A%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e379684dbdb4419:0x62fa3505a331ca17!8m2!3d25.3942866!4d49.6022392!16s%2Fg%2F11g9qgrgsq!19sChIJGUTb24SWNz4RF8oxowU1-mI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Kaak+%26+Khobz+-%D9%83%D8%B9%D9%83+%D9%88+%D8%AE%D8%A8%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x15c3d11bd6970585:0x59add8d7be342f58!8m2!3d21.5690622!4d39.1636006!16s%2Fg%2F11k9f3q8mb!19sChIJhQWX1hvRwxURWC80vtfYrVk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%8A%D9%88%D9%85+%D8%A7%D9%84%D8%B9%D8%B5%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2f06de79efd56b:0xb5aa68da4fdc457b!8m2!3d24.6890486!4d46.7819903!16s%2Fg%2F11c1wwx345!19sChIJa9Xved4GLz4Re0XcT9poqrU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A2%D9%8A%D8%B3+%D9%83%D8%B1%D9%8A%D9%85+%D9%85%D9%88%D9%81%D9%86%D8%A8%D9%8A%D9%83%E2%80%AD/data=!4m7!3m6!1s0x15c3d0588e72cc1d:0xdaeb00759e88b384!8m2!3d21.5791086!4d39.1824067!16s%2Fg%2F11bby5hf4c!19sChIJHcxyjljQwxURhLOInnUA69o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%82%D8%B7%D9%88%D9%81+%D9%88%D8%AD%D9%84%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x1607f5f9d95ac79d:0xe25dabb4c4191d65!8m2!3d16.9614199!4d42.8217855!16s%2Fg%2F11j0cz0dvt!19sChIJncda2fn1BxYRZR0ZxLSrXeI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D8%B2+%D8%A8%D9%84%D8%A8%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15fb5b3b62930aad:0x6e82ed51486c63d1!8m2!3d18.3336084!4d42.761572!16s%2Fg%2F11sj2h55tj!19sChIJrQqTYjtb-xUR0WNsSFHtgm4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%B3%D9%88%D9%8A%D8%AA+%D8%A7%D9%8A+%D8%AF%D9%8A+Sweet+I.D%E2%80%AD/data=!4m7!3m6!1s0x3e2ee5ae9ec25d27:0xdd148eb6b522a688!8m2!3d24.8191216!4d46.6555136!16s%2Fg%2F11v0wyg97x!19sChIJJ13Cnq7lLj4RiKYitbaOFN0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AE%D8%B7+%D8%A7%D9%84%D9%88%D8%A7%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15fec38a5e3d949f:0x5e3201b5610add8f!8m2!3d17.5656036!4d44.2289441!16s%2Fg%2F11krjqk13x!19sChIJn5Q9XorD_hURj90KYbUBMl4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%88%D8%A7%D9%84+%D9%88+%D9%85%D8%AE%D8%A8%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x3e2efc2394149e17:0xf85ce059962dfd7e!8m2!3d24.8216298!4d46.7416107!16s%2Fg%2F11g9dh61_f!19sChIJF54UlCP8Lj4Rfv0tllngXPg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%83%D8%A7%D9%83%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x1572b90055b69d11:0x352559d8839f5eb!8m2!3d29.952614!4d40.194131!16s%2Fg%2F11y32m5zpy!19sChIJEZ22VQC5chUR6_U5iJ1VUgM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%B5%D8%A7%D8%A6%D8%B1+%D8%AC%D8%A7%D9%85%D9%86+%7C+Jammin%27+Juice%E2%80%AD/data=!4m7!3m6!1s0x3e2f0402f4f0a445:0xcbb5d839a910be1c!8m2!3d24.6863326!4d46.7465121!16s%2Fg%2F11f4r3_c30!19sChIJRaTw9AIELz4RHL4QqTnYtcs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%A7%D8%A8%D8%A7+%D9%83%D9%86%D8%A7%D9%81%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c1ffc9acb12e0d:0xebefa047e097e26f!8m2!3d21.493127!4d39.9580017!16s%2Fg%2F11rjyvnhnt!19sChIJDS6xrMn_wRURb-KX4Eeg7-s?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%BA%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15c3cf72ff6990bb:0x4b44498696857f3d!8m2!3d21.5099879!4d39.1775907!16s%2Fg%2F11vcl_8lw5!19sChIJu5Bp_3LPwxURPX-FloZJREs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A8%D8%A7%D9%83+85%25%E2%80%AD/data=!4m7!3m6!1s0x3e379108cb33f185:0x9efbf2d05d60c8d9!8m2!3d25.3077097!4d49.5563184!16s%2Fg%2F11kqx4t98y!19sChIJhfEzywiRNz4R2chgXdDy-54?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%88%D8%B1%D8%A7%D9%86%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x3e49e5e493898f79:0x5c06696f7ee3c56f!8m2!3d26.3396895!4d50.1517557!16s%2Fg%2F11kc3ykz2d!19sChIJeY-Jk-TlST4Rb8Xjfm9pBlw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D8%B1%D9%83+%D8%AF%D8%A8%D9%8A+karak+Dubai%E2%80%AD/data=!4m7!3m6!1s0x1513e1006c2a4d9f:0xbec1487441278be8!8m2!3d31.6700455!4d38.6822699!16s%2Fg%2F11vyf1pvy6!19sChIJn00qbADhExUR6IsnQXRIwb4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%8A%D8%B3+%D8%A5%D9%86+-+ICEN%E2%80%AD/data=!4m7!3m6!1s0x15fcab90f247d1ff:0xaae7d0c7990bec1c!8m2!3d18.2274923!4d42.5894899!16s%2Fg%2F11kqq1gdm8!19sChIJ_9FH8pCr_BURHOwLmcfQ56o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D9%88%D8%A8+%D9%82%D8%B5%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15bdb9c0db46e741:0x3439100b9f450cf9!8m2!3d24.4585625!4d39.5384375!16s%2Fg%2F11kqwj3_v4!19sChIJQedG28C5vRUR-QxFnwsQOTQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%8A%D9%85%D9%8A%D8%A7+%D9%84%D9%84%D9%85%D8%B9%D8%AC%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D9%81%D8%A7%D8%AE%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1583cbe1ec727181:0xb85d081fadf46e9b!8m2!3d25.8732012!4d43.5231844!16s%2Fg%2F11g073fz9q!19sChIJgXFy7OHLgxURm270rR8IXbg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D9%87%D8%B1+%D8%A7%D9%84%D8%B9%D8%B5%D8%A7%D8%A6%D8%B1+%D8%AC%D9%84%D9%85%D9%88%D8%AF%D8%A9+%D8%A7%D9%84%D8%B3%D9%84%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e3511b9b286fe79:0xdfadd106b3cdaa75!8m2!3d27.1629301!4d49.5430247!16s%2Fg%2F11h3ldzc28!19sChIJef6GsrkRNT4RdarNswbRrd8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%B5%D8%A7%D9%8A%D8%B1+%D8%A8%D8%B4%D8%A7%D9%8A%D8%B1+%D8%A7%D9%84%D8%AE%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2f014027e9b45b:0xed0ff7ec8503d568!8m2!3d24.7607063!4d46.81229!16s%2Fg%2F11vrjrgqk4!19sChIJW7TpJ0ABLz4RaNUDhez3D-0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D9%85%D8%A7%D9%84%D8%8C%D8%8C+%D8%A7%D9%84%D8%B1%D9%85%D8%A7%D9%84%D8%8C+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%E2%80%AD/data=!4m7!3m6!1s0x3e2eff71a268b717:0x5a9316872636a6d8!8m2!3d24.8364517!4d46.802283!16s%2Fg%2F11sf5248pk!19sChIJF7doonH_Lj4R2KY2JocWk1o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%B1%D9%8A%D9%85%D8%A7%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x3fd73f4b594b37c9:0x9fb8300941db1ae!8m2!3d28.3977094!4d45.9791504!16s%2Fg%2F11b71sdwlq!19sChIJyTdLWUs_1z8RrrEdlACD-wk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D8%A7+%D8%A8%D8%B1%D9%86%D8%B3+%D9%86%D9%85%D8%A7%D8%B1+-+%D8%A7%D9%84%D8%B9%D9%88%D8%A7%D9%84%D9%8A+-+%D8%A7%D9%84%D9%85%D9%88%D8%B3%D9%89+-+%D8%A7%D9%84%D8%BA%D8%B1%D9%88%D8%A8+-+%D8%B7%D9%88%D9%8A%D9%82%E2%80%AD/data=!4m7!3m6!1s0x3e2f17de89a2a753:0xc075026e3f28c6bc!8m2!3d24.5595015!4d46.5884164!16s%2Fg%2F11f7pvbdvd!19sChIJU6eiid4XLz4RvMYoP24CdcA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D9%81%D8%B1%D8%A7%D9%86+%D8%A7%D9%84%D8%AD%D8%B7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x3e2ee3a7d55a8341:0xd1d4141779ab0d9!8m2!3d24.7643916!4d46.6242009!16s%2Fg%2F11fj4bvb6f!19sChIJQYNa1afjLj4R2bCad0FBHQ0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AC%D9%88%D8%B3+%D8%A2%D9%86%D8%AF+%D8%A2%D9%8A%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x3e379140625ebd7d:0xe3806c828d7a6635!8m2!3d25.3427224!4d49.5898161!16s%2Fg%2F11h9z2m_t_!19sChIJfb1eYkCRNz4RNWZ6jYJsgOM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%B5%D9%8A%D8%B1%D8%A7%D8%AA+%D8%A7%D9%84%D9%88%D8%A7%D8%AD%D8%A9+%28Al-Waha+Juices%29%E2%80%AD/data=!4m7!3m6!1s0x157f56214c982a27:0xb7f8ce93d7041c8d!8m2!3d26.3601107!4d43.8911069!16s%2Fg%2F11c52qzjnp!19sChIJJyqYTCFWfxURjRwE15PO-Lc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%A8%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x3e3797002eb857e3:0xc693983c8755cb7c!8m2!3d25.3765264!4d49.5929299!16s%2Fg%2F11vplffstw!19sChIJ41e4LgCXNz4RfMtVhzyYk8Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D8%B9%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15c3d0cbfbe4f5d7:0x9e04763295580e!8m2!3d21.6148194!4d39.1800225!16s%2Fg%2F11f7249g8l!19sChIJ1_Xk-8vQwxURDliVMnYEngA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%85%D8%A7%D9%86%D9%8A+%D8%B3%D9%88%D9%8A%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e49e38eda64decf:0x432129630d88630d!8m2!3d26.3625613!4d49.9925405!16s%2Fg%2F11t6l02y84!19sChIJz95k2o7jST4RDWOIDWMpIUM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%86%D8%A7%D8%A8%D9%84+%D8%A7%D9%84%D8%B3%D9%84%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e2efdd228e24df1:0xce00b68bc5b3215!8m2!3d24.8012323!4d46.7401059!16s%2Fg%2F11bwgk59y8!19sChIJ8U3iKNL9Lj4RFTJbvGgL4Aw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D9%82%D8%B5%D8%B1+%D8%AA%D9%88%D9%84%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f0f92d9589857:0xe489d42c41ceef75!8m2!3d24.5471372!4d46.6957083!16s%2Fg%2F11rdbgpq9r!19sChIJV5hY2ZIPLz4Rde_OQSzUieQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AC%D9%88%D8%B3+%D8%A8%D8%A7%D8%B1%D9%83%E2%80%AD/data=!4m7!3m6!1s0x3e3797a194ab2a21:0x8b751d05119ce931!8m2!3d25.4407487!4d49.5979977!16s%2Fg%2F11f7qzhszw!19sChIJISqrlKGXNz4RMemcEQUddYs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D9%88%D9%8A%D8%A7%D8%AA+%D8%AF%D8%A7%D9%86%D8%A9+%D8%A7%D9%84%D8%A3%D8%B1%D9%8A%D8%A7%D9%81%E2%80%AD/data=!4m7!3m6!1s0x3e2f0172ea6a38b9:0xebe462510ab8ebb0!8m2!3d24.730609!4d46.765952!16s%2Fg%2F11byxfry_q!19sChIJuThq6nIBLz4RsOu4ClFi5Os?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%B5%D8%A7%D8%A6%D8%B1+%D8%A5%D9%86%D8%AA%D8%B9%D8%B4+%D8%AC%D9%88%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x15c3d39765bb484f:0x98b2d3f16e3580f6!8m2!3d21.5854782!4d39.2402191!16s%2Fg%2F11kb4cr03w!19sChIJT0i7ZZfTwxUR9oA1bvHTspg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D8%B9%D9%83+%D9%88%D9%83%D9%8A%D9%83%E2%80%AD/data=!4m7!3m6!1s0x15c3cd980d0cc129:0xae73b69b1b37b540!8m2!3d21.5106858!4d39.2756818!16s%2Fg%2F11t7yq7x4b!19sChIJKcEMDZjNwxURQLU3G5u2c64?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AD%D9%8A%D8%A7%D8%A9+%D8%AD%D9%84%D9%88%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a9b3a66ee0904d:0xf8ad726fb1e04f3d!8m2!3d28.4200583!4d36.588165!16s%2Fg%2F11qh7g0b3n!19sChIJTZDgbqazqRURPU_gsW9yrfg?authuser=0&amp;hl=ar&amp;rclk=1</t>
+    <t>https://www.go...</t>
   </si>
   <si>
     <t>سنابل السلام</t>
   </si>
   <si>
-    <t>حلويات أصل الحلا للحلويات - فرع سلطانة</t>
+    <t>حلويات أصل الح...</t>
   </si>
   <si>
     <t>حلويات شهرزاد</t>
@@ -352,13 +55,13 @@
     <t>موقف</t>
   </si>
   <si>
-    <t>Patisserie Mo Mashat | حلويات محمد مشاط</t>
+    <t>Patisserie Mo ...</t>
   </si>
   <si>
     <t>كوكتيل وشقف</t>
   </si>
   <si>
-    <t>عصيرات افوكادو</t>
+    <t>عصيرات افوكادو...</t>
   </si>
   <si>
     <t>حلويات الشرق</t>
@@ -367,34 +70,34 @@
     <t>مخبز عربي</t>
   </si>
   <si>
-    <t>أناناس للعصائر</t>
-  </si>
-  <si>
-    <t>حلويات بقداش سيهات</t>
-  </si>
-  <si>
-    <t>صانع العصير الطازجه</t>
+    <t>أناناس للعصائر...</t>
+  </si>
+  <si>
+    <t>حلويات بقداش س...</t>
+  </si>
+  <si>
+    <t>صانع العصير ال...</t>
   </si>
   <si>
     <t>عصائر لمى</t>
   </si>
   <si>
-    <t>الكنفاني الأصلي</t>
-  </si>
-  <si>
-    <t>مخابز زين الدين</t>
-  </si>
-  <si>
-    <t>ليمون ونعناع للعصائر</t>
+    <t>الكنفاني الأصل...</t>
+  </si>
+  <si>
+    <t>مخابز زين الدي...</t>
+  </si>
+  <si>
+    <t>ليمون ونعناع ل...</t>
   </si>
   <si>
     <t>لاو لاو</t>
   </si>
   <si>
-    <t>عصائر العنب الاحمر</t>
-  </si>
-  <si>
-    <t>مخابز وحلويات أرياف الالية</t>
+    <t>عصائر العنب ال...</t>
+  </si>
+  <si>
+    <t>مخابز وحلويات ...</t>
   </si>
   <si>
     <t>حلوجي علي</t>
@@ -403,34 +106,34 @@
     <t>deem sweet</t>
   </si>
   <si>
-    <t>الأسطورة للعصائر</t>
+    <t>الأسطورة للعصا...</t>
   </si>
   <si>
     <t>افوكادو جوس</t>
   </si>
   <si>
-    <t>عصيرات نجمة الوزيرية الروابي</t>
-  </si>
-  <si>
-    <t>أبو راس سمن على عسل</t>
+    <t>عصيرات نجمة ال...</t>
+  </si>
+  <si>
+    <t>أبو راس سمن عل...</t>
   </si>
   <si>
     <t>زين كوكيز</t>
   </si>
   <si>
-    <t>وليفة للحلويات</t>
-  </si>
-  <si>
-    <t>حلويات سعدالدين (الصفا1) saadeddin pastry</t>
-  </si>
-  <si>
-    <t>لقيمات ماما نورة</t>
-  </si>
-  <si>
-    <t>حلويات احلا الحلا</t>
-  </si>
-  <si>
-    <t>مخبز نور الصباح</t>
+    <t>وليفة للحلويات...</t>
+  </si>
+  <si>
+    <t>حلويات سعدالدي...</t>
+  </si>
+  <si>
+    <t>لقيمات ماما نو...</t>
+  </si>
+  <si>
+    <t>حلويات احلا ال...</t>
+  </si>
+  <si>
+    <t>مخبز نور الصبا...</t>
   </si>
   <si>
     <t>مخابز الحطب</t>
@@ -439,31 +142,31 @@
     <t>معمولا</t>
   </si>
   <si>
-    <t>Mirad Bakery مخبز ميراد</t>
-  </si>
-  <si>
-    <t>توزين للشوكولاته</t>
+    <t>Mirad Bakery م...</t>
+  </si>
+  <si>
+    <t>توزين للشوكولا...</t>
   </si>
   <si>
     <t>باسكن روبنز</t>
   </si>
   <si>
-    <t>فول الشيخ:جدة الاسكان الجنوبي مشروع الامير فواز دوار البلدية</t>
-  </si>
-  <si>
-    <t>حلويات المملكة</t>
+    <t>فول الشيخ:جدة ...</t>
+  </si>
+  <si>
+    <t>حلويات المملكة...</t>
   </si>
   <si>
     <t>غصن السكر</t>
   </si>
   <si>
-    <t>اولد بيير ايس كريم</t>
+    <t>اولد بيير ايس ...</t>
   </si>
   <si>
     <t>عصائر زهير</t>
   </si>
   <si>
-    <t>Diplomat Sweets / الدبلوماسي للحلويات</t>
+    <t>Diplomat Sweet...</t>
   </si>
   <si>
     <t>بيك أواي</t>
@@ -478,31 +181,31 @@
     <t>فراولتى قباء</t>
   </si>
   <si>
-    <t>روعة للحلويات بالعزيزية- الرياض</t>
-  </si>
-  <si>
-    <t>حلويات ابو الريش</t>
+    <t>روعة للحلويات ...</t>
+  </si>
+  <si>
+    <t>حلويات ابو الر...</t>
   </si>
   <si>
     <t>دروازة الخباز</t>
   </si>
   <si>
-    <t>Blue Plate مخبز ومقهى</t>
+    <t>Blue Plate مخب...</t>
   </si>
   <si>
     <t>فستق</t>
   </si>
   <si>
-    <t>حلويات شيخه الرياض عرقه</t>
-  </si>
-  <si>
-    <t>اغصان العنب الحصين القابل</t>
-  </si>
-  <si>
-    <t>مخبر للعيش البر والأبيض وغيرهما</t>
-  </si>
-  <si>
-    <t>barakathi sweets everything 10.5 riyal</t>
+    <t>حلويات شيخه ال...</t>
+  </si>
+  <si>
+    <t>اغصان العنب ال...</t>
+  </si>
+  <si>
+    <t>مخبر للعيش الب...</t>
+  </si>
+  <si>
+    <t>barakathi swee...</t>
   </si>
   <si>
     <t>عصيرات ماجد</t>
@@ -517,25 +220,25 @@
     <t>ايسكريم ارنوب</t>
   </si>
   <si>
-    <t>حلويات بيك العرب فرع نمار</t>
-  </si>
-  <si>
-    <t>افوكادو قصب فرغلي ( ابرق الرغامة )</t>
-  </si>
-  <si>
-    <t>كافيتريا أرنوب</t>
+    <t>حلويات بيك الع...</t>
+  </si>
+  <si>
+    <t>افوكادو قصب فر...</t>
+  </si>
+  <si>
+    <t>كافيتريا أرنوب...</t>
   </si>
   <si>
     <t>لافيتا عصيرات</t>
   </si>
   <si>
-    <t>Kaak &amp; Khobz -كعك و خبز</t>
+    <t>Kaak &amp; Khobz -...</t>
   </si>
   <si>
     <t>يوم العصير</t>
   </si>
   <si>
-    <t>آيس كريم موفنبيك</t>
+    <t>آيس كريم موفنب...</t>
   </si>
   <si>
     <t>قطوف وحلا</t>
@@ -544,7 +247,7 @@
     <t>رز بلبن</t>
   </si>
   <si>
-    <t>حلويات سويت اي دي Sweet I.D</t>
+    <t>حلويات سويت اي...</t>
   </si>
   <si>
     <t>خط الوادي</t>
@@ -556,7 +259,7 @@
     <t>سكاكا</t>
   </si>
   <si>
-    <t>عصائر جامن | Jammin' Juice</t>
+    <t>عصائر جامن | J...</t>
   </si>
   <si>
     <t>بابا كنافة</t>
@@ -571,7 +274,7 @@
     <t>اورانج</t>
   </si>
   <si>
-    <t>كرك دبي karak Dubai</t>
+    <t>كرك دبي karak ...</t>
   </si>
   <si>
     <t>ايس إن - ICEN</t>
@@ -580,22 +283,22 @@
     <t>كوب قصب</t>
   </si>
   <si>
-    <t>سيميا للمعجنات الفاخرة</t>
-  </si>
-  <si>
-    <t>نهر العصائر جلمودة السلام</t>
-  </si>
-  <si>
-    <t>عصاير بشاير الخير</t>
-  </si>
-  <si>
-    <t>الرمال،، الرمال، الرياض</t>
+    <t>سيميا للمعجنات...</t>
+  </si>
+  <si>
+    <t>نهر العصائر جل...</t>
+  </si>
+  <si>
+    <t>عصاير بشاير ال...</t>
+  </si>
+  <si>
+    <t>الرمال،، الرما...</t>
   </si>
   <si>
     <t>حلويات ريماز</t>
   </si>
   <si>
-    <t>حلا برنس نمار - العوالي - الموسى - الغروب - طويق</t>
+    <t>حلا برنس نمار ...</t>
   </si>
   <si>
     <t>أفران الحطب</t>
@@ -604,7 +307,7 @@
     <t>جوس آند آيس</t>
   </si>
   <si>
-    <t>عصيرات الواحة (Al-Waha Juices)</t>
+    <t>عصيرات الواحة ...</t>
   </si>
   <si>
     <t>مخبز</t>
@@ -616,16 +319,16 @@
     <t>اماني سويت</t>
   </si>
   <si>
-    <t>حلويات قصر تولين</t>
+    <t>حلويات قصر تول...</t>
   </si>
   <si>
     <t>جوس بارك</t>
   </si>
   <si>
-    <t>حلويات دانة الأرياف</t>
-  </si>
-  <si>
-    <t>عصائر إنتعش جوس</t>
+    <t>حلويات دانة ال...</t>
+  </si>
+  <si>
+    <t>عصائر إنتعش جو...</t>
   </si>
   <si>
     <t>كعك وكيك</t>
@@ -907,298 +610,289 @@
     <t>54</t>
   </si>
   <si>
-    <t>7627، حي مريخ، جدة 23253 2368، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>سلطانه، سلطانة، الرياض 12791، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>TAAA9658، 9658 عرفات, 2554، الطائف 26513، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>جامعة الملك سعود، 3725، 8745، الرياض 12372، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الامير سلطان، البساتين، جدة 23717، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6926 طريق القدس، الظفير، BADA4478، 4478، الباحة 65522، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8246, 3680, جدة 23826، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>SRYB7213، 7213 شارع الامير عبدالعزيز بن مساعد بن جلوي، 2844، حي العزيزية،، رفحاء 76313،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HMMP+GQ8، الدريهمية، الرياض 12797، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع عبد الله خياط، الجامعة، مكة 24243، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع عمر بن عبدالعزيز، الفردوس، سيهات‎ 32437، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك فهد، النهضة، أبو عريش 84714، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>القناة، حي الهلال، بريدة 52211، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4647 شارع الامير نايف, المطار، 8247, بقيق 33261، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع عمر بن عبدالعزيز، السلام، سيهات‎ 32437، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>88PP+PHG، الخالدية، القريات 77451، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>برج المملكة، العليا، العليا، العليا، الرياض 12214، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع عبدالرحمن بن عوف، مشرف، الخرج 16249، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>89MM+WFR، حصيدة، القريات 77455، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>853C+P75 مول - بوابة 5، الدوحة الجنوبية، الظهران 34457، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الحمراء وأم الجود، مكة 24323، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>X9G6+7HJ، مدينه، غران 25551، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5012 بلديه الاربعين، حي الروابي، 7228،، جدة 22345، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع المسجد الحرام ، بجوار عمارة العاصمة ، حي الجميزة، الجميزة، مكة 24236، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>G2Q2+MX7، ولراتاتدل، القطيف‎ 32032،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق سليمان الراجحي، حي القيم الأعلى، الطائف 26563، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الامام الشافعي، الفيصلية،، جدة 23447، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2759 شارع النسيم، حي النسيم، 6581، جدة 23233، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الخليج، القافلة، خميس مشيط 62454، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6XWJ+3HV، المدينة الصناعية الثانية بالدمام، الدمام 34327، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق صلاح الدين الأيوبي، السليمانية، الرياض 12233، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ياقوت الحموي، الهضيبة، تبوك 47916، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6341, 3254، السوق، As Suq, رابغ 25754، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7894 حي ايتارة، شارع الامام محمد بن سعود، خميس مشيط 61961، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JMJR+224، عليشة، الرياض 12746، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JJZA2757، 7789 شارع أمية عوف، 2757، جدة 22441، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع حسان بن ثابت، النسيم الغربي، الرياض 14232، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>محمد السويلم، البكيرية 54622، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>البريدي،حي الاندلس، شارع البريدي مقابل الدانوب، جدة 23326، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8XHX+CHC، طريق عمر بن عبدالعزيز، الفاخرية، بريدة 52347، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالعزيز الفرعي، الغدير، الرياض 13311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>QQH2+69H، الحمراء، الرياض 13216، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الصالحية، 2940، 6256، أحد رفيدة 62448، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7218 طريق الأمير سعد بن عبدالرحمن الأول الفرعي، حي الروابي، 5054، الرياض 14216، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>FJ65+H29، طريق قباء، المغيسلة، المدينة المنورة 42315، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>سفيان بن عوف، العزيزية، الرياض 14514، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2330، 7824، حي النسيم، عنيزة 56218، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع فاطمة الزهراء، عبدالله فؤاد، الدمام 32236، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>J529+6HC، قريش، البوادي، جدة 23531، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق مكة، الهفوف‎ 36423، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق عثمان بن عفان، حي النهضة، بريدة 52388، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>امارة عرقة، عرقة، الرياض 12534، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع حصين، ة٠، نجران 00966، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>المثناه،، 3852 المثناة، TAAC3852، 8510، حي، الطائف 26511، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الخالدية،، مكة 24232، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالعزيز، البلدية، حفر الباطن 39921، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع موسى بن نصير، العليا، الرياض 12241، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9W2Q+9HH، حي المنار، بريدة 52372، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ممشى حديقة الشهداء، غرناطة، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق ديراب، نمار، الرياض 14962، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3457 طريق الملك عبدالله، ابرق الرغامة، جدة 22261، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>القبلتين، شارع ابن طاهر - حي، المدينة المنورة 42351، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9JV2+PV9، الهفوف والمبرز طريق الملك فهد طريق الملك فهد الهفوف، المبرز 36364، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الكيال، الروضة، جدة 23434، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Az Zubair Ibn Al Awam, Ar Rawabi، الروابي، الرياض 14215، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>H5HJ+JXV، صقر قريش، السلامة،، جدة 23436، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الامير سلطان،، الخالدية، أبو عريش 84712، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5390 ام سلمة الانصارية، حي اليرموك، AKUC7928، 7928، خميس مشيط 62481، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، القادسية، الياسمين، الرياض 13322، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>H68H+6HW، نجران 66252، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>RPCR+MJ5، قرطبة، الرياض 13248، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>X53V+2J، طريق الامير فهد بن بدر بن عبدالعزيز، سكاكا 72345، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الربوة، الرياض 12816، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4905, Ash Sharai Ash Shamaliyyah, 7026, Saudi Arabia, مكة 24432، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>البغدادية الغربية، 3973 طريق الملك عبدالله الفرعي، حي البغدادية الغربية، جدة 22234 8594, جدة 22234، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3666 المهاب، حي العاصمة، FHGD6984، 6984، الهفوف‎ 36445، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>34247, الظهران 34247، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الفيصلية، طريف‎ 75312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ممشى، شارع النخيل، الموظفين، أبها 62583، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>FG5Q+C9H، الدفاع، المدينة المنورة 42374، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الجريف، الحزم، الرس 58884، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق السلام، جلمودة، الجبيل 35817، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>سلمان الفارسي، النهضة، الرياض 13224، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8358، الرمال، الرياض 13254، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9XXH+3MJ، أبو بكر الصديق، المحمدية، حفر الباطن 39911، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>غرب، شارع سفيان بن الحكم حي العوالي، الرياض المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الأمير محمد بن سعد بن عبدالعزيز، العقيق، الرياض 13511، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3070 الامير نواف، الخالدية، الهفوف والمبرز 36362 الهفوف 7418، الهفوف‎ 36362، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2765، العليا، بريدة 52373، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9HGV+J57 سوق الحرفيين، حي الرفعة الشمالية، الهفوف‎ 36361، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>J57J+W2C حي, الربوة، جدة 23535، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق سعيد ابن زيد، قرطبة، الرياض 13245، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>بدر، الرياض 14724، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي الراشدية، المبرز 36342، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الحسن بن علي، الروضة، الرياض 11564، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>عبدالله بن عطاء، حي السامر، جدة 23464، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>G76G+77F، G76G+686، ابرق الرغامة،، جدة 22261،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>المروج، تبوك 47312، المملكة العربية السعودية</t>
+    <t>7627، حي مريخ،...</t>
+  </si>
+  <si>
+    <t>سلطانه، سلطانة...</t>
+  </si>
+  <si>
+    <t>TAAA9658، 9658...</t>
+  </si>
+  <si>
+    <t>جامعة الملك سع...</t>
+  </si>
+  <si>
+    <t>طريق الامير سل...</t>
+  </si>
+  <si>
+    <t>6926 طريق القد...</t>
+  </si>
+  <si>
+    <t>8246, 3680, جد...</t>
+  </si>
+  <si>
+    <t>SRYB7213، 7213...</t>
+  </si>
+  <si>
+    <t>HMMP+GQ8، الدر...</t>
+  </si>
+  <si>
+    <t>شارع عبد الله ...</t>
+  </si>
+  <si>
+    <t>شارع عمر بن عب...</t>
+  </si>
+  <si>
+    <t>طريق الملك فهد...</t>
+  </si>
+  <si>
+    <t>القناة، حي اله...</t>
+  </si>
+  <si>
+    <t>4647 شارع الام...</t>
+  </si>
+  <si>
+    <t>88PP+PHG، الخا...</t>
+  </si>
+  <si>
+    <t>برج المملكة، ا...</t>
+  </si>
+  <si>
+    <t>شارع عبدالرحمن...</t>
+  </si>
+  <si>
+    <t>89MM+WFR، حصيد...</t>
+  </si>
+  <si>
+    <t>853C+P75 مول -...</t>
+  </si>
+  <si>
+    <t>الحمراء وأم ال...</t>
+  </si>
+  <si>
+    <t>X9G6+7HJ، مدين...</t>
+  </si>
+  <si>
+    <t>5012 بلديه الا...</t>
+  </si>
+  <si>
+    <t>شارع المسجد ال...</t>
+  </si>
+  <si>
+    <t>G2Q2+MX7، ولرا...</t>
+  </si>
+  <si>
+    <t>طريق سليمان ال...</t>
+  </si>
+  <si>
+    <t>الامام الشافعي...</t>
+  </si>
+  <si>
+    <t>2759 شارع النس...</t>
+  </si>
+  <si>
+    <t>الخليج، القافل...</t>
+  </si>
+  <si>
+    <t>6XWJ+3HV، المد...</t>
+  </si>
+  <si>
+    <t>طريق صلاح الدي...</t>
+  </si>
+  <si>
+    <t>ياقوت الحموي، ...</t>
+  </si>
+  <si>
+    <t>6341, 3254، ال...</t>
+  </si>
+  <si>
+    <t>7894 حي ايتارة...</t>
+  </si>
+  <si>
+    <t>JMJR+224، عليش...</t>
+  </si>
+  <si>
+    <t>JJZA2757، 7789...</t>
+  </si>
+  <si>
+    <t>شارع حسان بن ث...</t>
+  </si>
+  <si>
+    <t>محمد السويلم، ...</t>
+  </si>
+  <si>
+    <t>البريدي،حي الا...</t>
+  </si>
+  <si>
+    <t>8XHX+CHC، طريق...</t>
+  </si>
+  <si>
+    <t>طريق الملك عبد...</t>
+  </si>
+  <si>
+    <t>QQH2+69H، الحم...</t>
+  </si>
+  <si>
+    <t>الصالحية، 2940...</t>
+  </si>
+  <si>
+    <t>7218 طريق الأم...</t>
+  </si>
+  <si>
+    <t>FJ65+H29، طريق...</t>
+  </si>
+  <si>
+    <t>سفيان بن عوف، ...</t>
+  </si>
+  <si>
+    <t>2330، 7824، حي...</t>
+  </si>
+  <si>
+    <t>شارع فاطمة الز...</t>
+  </si>
+  <si>
+    <t>J529+6HC، قريش...</t>
+  </si>
+  <si>
+    <t>طريق مكة، الهف...</t>
+  </si>
+  <si>
+    <t>طريق عثمان بن ...</t>
+  </si>
+  <si>
+    <t>امارة عرقة، عر...</t>
+  </si>
+  <si>
+    <t>شارع حصين، ة٠،...</t>
+  </si>
+  <si>
+    <t>المثناه،، 3852...</t>
+  </si>
+  <si>
+    <t>الخالدية،، مكة...</t>
+  </si>
+  <si>
+    <t>شارع موسى بن ن...</t>
+  </si>
+  <si>
+    <t>9W2Q+9HH، حي ا...</t>
+  </si>
+  <si>
+    <t>ممشى حديقة الش...</t>
+  </si>
+  <si>
+    <t>طريق ديراب، نم...</t>
+  </si>
+  <si>
+    <t>3457 طريق المل...</t>
+  </si>
+  <si>
+    <t>القبلتين، شارع...</t>
+  </si>
+  <si>
+    <t>9JV2+PV9، الهف...</t>
+  </si>
+  <si>
+    <t>الكيال، الروضة...</t>
+  </si>
+  <si>
+    <t>Az Zubair Ibn ...</t>
+  </si>
+  <si>
+    <t>H5HJ+JXV، صقر ...</t>
+  </si>
+  <si>
+    <t>5390 ام سلمة ا...</t>
+  </si>
+  <si>
+    <t>حي، القادسية، ...</t>
+  </si>
+  <si>
+    <t>H68H+6HW، نجرا...</t>
+  </si>
+  <si>
+    <t>RPCR+MJ5، قرطب...</t>
+  </si>
+  <si>
+    <t>X53V+2J، طريق ...</t>
+  </si>
+  <si>
+    <t>الربوة، الرياض...</t>
+  </si>
+  <si>
+    <t>4905, Ash Shar...</t>
+  </si>
+  <si>
+    <t>البغدادية الغر...</t>
+  </si>
+  <si>
+    <t>3666 المهاب، ح...</t>
+  </si>
+  <si>
+    <t>34247, الظهران...</t>
+  </si>
+  <si>
+    <t>الفيصلية، طريف...</t>
+  </si>
+  <si>
+    <t>ممشى، شارع الن...</t>
+  </si>
+  <si>
+    <t>FG5Q+C9H، الدف...</t>
+  </si>
+  <si>
+    <t>شارع الجريف، ا...</t>
+  </si>
+  <si>
+    <t>طريق السلام، ج...</t>
+  </si>
+  <si>
+    <t>سلمان الفارسي،...</t>
+  </si>
+  <si>
+    <t>8358، الرمال، ...</t>
+  </si>
+  <si>
+    <t>9XXH+3MJ، أبو ...</t>
+  </si>
+  <si>
+    <t>غرب، شارع سفيا...</t>
+  </si>
+  <si>
+    <t>طريق الأمير مح...</t>
+  </si>
+  <si>
+    <t>3070 الامير نو...</t>
+  </si>
+  <si>
+    <t>2765، العليا، ...</t>
+  </si>
+  <si>
+    <t>9HGV+J57 سوق ا...</t>
+  </si>
+  <si>
+    <t>J57J+W2C حي, ا...</t>
+  </si>
+  <si>
+    <t>طريق سعيد ابن ...</t>
+  </si>
+  <si>
+    <t>بدر، الرياض 14...</t>
+  </si>
+  <si>
+    <t>حي الراشدية، ا...</t>
+  </si>
+  <si>
+    <t>شارع الحسن بن ...</t>
+  </si>
+  <si>
+    <t>عبدالله بن عطا...</t>
+  </si>
+  <si>
+    <t>G76G+77F، G76G...</t>
+  </si>
+  <si>
+    <t>المروج، تبوك 4...</t>
   </si>
   <si>
     <t>+966510089265</t>
@@ -1429,79 +1123,58 @@
     <t>+966559103428</t>
   </si>
   <si>
-    <t>https://www.sanabel.sa/</t>
-  </si>
-  <si>
-    <t>https://candy-store-5308.business.site/?utm_source=gmb&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t>https://instagram.com/patisserie_mo?igshid=Nzg3NjI1NGI=</t>
-  </si>
-  <si>
-    <t>https://instagram.com/zainuddinbp.sa?igshid=YmMyMTA2M2Y=</t>
-  </si>
-  <si>
-    <t>https://instagram.com/helvaciali.ksa?igshid=MzRlODBiNWFlZA==</t>
-  </si>
-  <si>
-    <t>http://waleefah.com/</t>
-  </si>
-  <si>
-    <t>http://www.saadeddin.com/</t>
-  </si>
-  <si>
-    <t>https://linktr.ee/mamolahh</t>
-  </si>
-  <si>
-    <t>https://almamlakasweets.com/</t>
-  </si>
-  <si>
-    <t>http://joumaiz-1.yallaqrcodes.com/</t>
-  </si>
-  <si>
-    <t>https://instagram.com/drwaazh?igshid=1k9zvai3je31z</t>
-  </si>
-  <si>
-    <t>http://www.baskinrobbinsmea.com/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/blueplate_sa/</t>
-  </si>
-  <si>
-    <t>http://fostog.com/</t>
-  </si>
-  <si>
-    <t>https://instagram.com/_sheikhasweets?utm_medium=copy_link</t>
-  </si>
-  <si>
-    <t>https://linkfly.to/40307QAs19s</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/kaak.khobz/?utm_medium=copy_link</t>
-  </si>
-  <si>
-    <t>https://vm.tiktok.com/ZSJak6V43/</t>
-  </si>
-  <si>
-    <t>https://www.moevenpick-icecream.com/</t>
-  </si>
-  <si>
-    <t>https://kottouf.co/</t>
-  </si>
-  <si>
-    <t>https://instagram.com/ornj.sa?igshid=MzRlODBiNWFlZA==</t>
-  </si>
-  <si>
-    <t>https://icen.shop/</t>
-  </si>
-  <si>
-    <t>http://www.alhatab.com.sa/</t>
-  </si>
-  <si>
-    <t>https://mrsool.app.link/shops/31ec9839769d1f7bbadcd3814b9226d7?type=service&amp;type_name=Default</t>
-  </si>
-  <si>
-    <t>https://instagram.com/danat_alaryafsa?utm_medium=copy_link</t>
+    <t>https://www.sa...</t>
+  </si>
+  <si>
+    <t>https://candy-...</t>
+  </si>
+  <si>
+    <t>https://instag...</t>
+  </si>
+  <si>
+    <t>http://waleefa...</t>
+  </si>
+  <si>
+    <t>http://www.saa...</t>
+  </si>
+  <si>
+    <t>https://linktr...</t>
+  </si>
+  <si>
+    <t>https://almaml...</t>
+  </si>
+  <si>
+    <t>http://joumaiz...</t>
+  </si>
+  <si>
+    <t>http://www.bas...</t>
+  </si>
+  <si>
+    <t>https://www.in...</t>
+  </si>
+  <si>
+    <t>http://fostog....</t>
+  </si>
+  <si>
+    <t>https://linkfl...</t>
+  </si>
+  <si>
+    <t>https://vm.tik...</t>
+  </si>
+  <si>
+    <t>https://www.mo...</t>
+  </si>
+  <si>
+    <t>https://kottou...</t>
+  </si>
+  <si>
+    <t>https://icen.s...</t>
+  </si>
+  <si>
+    <t>http://www.alh...</t>
+  </si>
+  <si>
+    <t>https://mrsool...</t>
   </si>
 </sst>
 </file>
@@ -1909,2242 +1582,2242 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>395</v>
+        <v>293</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>471</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>396</v>
+        <v>294</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>472</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>397</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" t="s">
-        <v>211</v>
-      </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="G6" t="s">
-        <v>398</v>
+        <v>296</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>473</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="G8" t="s">
-        <v>399</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" t="s">
-        <v>214</v>
-      </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>400</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" t="s">
-        <v>216</v>
-      </c>
       <c r="E11" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="G11" t="s">
-        <v>401</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="G12" t="s">
-        <v>402</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" t="s">
         <v>209</v>
       </c>
-      <c r="D13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F13" t="s">
-        <v>308</v>
-      </c>
       <c r="G13" t="s">
-        <v>403</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="G14" t="s">
-        <v>404</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="G15" t="s">
-        <v>405</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>311</v>
+        <v>208</v>
       </c>
       <c r="G16" t="s">
-        <v>406</v>
+        <v>304</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>474</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="G17" t="s">
-        <v>407</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="F18" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="G18" t="s">
-        <v>408</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>409</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>410</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="F21" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>475</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>411</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="F23" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>412</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" t="s">
         <v>219</v>
       </c>
-      <c r="E25" t="s">
-        <v>249</v>
-      </c>
-      <c r="F25" t="s">
-        <v>319</v>
-      </c>
       <c r="G25" t="s">
-        <v>413</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="F26" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="G26" t="s">
-        <v>414</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="F28" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
-        <v>415</v>
+        <v>313</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>476</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="G29" t="s">
-        <v>416</v>
+        <v>314</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>477</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="F31" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="G31" t="s">
-        <v>417</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="F32" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="F33" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="G33" t="s">
-        <v>418</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="F34" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="G34" t="s">
-        <v>419</v>
+        <v>317</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>478</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="F35" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="G35" t="s">
-        <v>420</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="G36" t="s">
-        <v>421</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="F38" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="F39" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="G39" t="s">
-        <v>422</v>
+        <v>320</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>479</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="F40" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="G40" t="s">
-        <v>423</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="G41" t="s">
-        <v>424</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="F42" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="G42" t="s">
-        <v>425</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="F43" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="G43" t="s">
-        <v>426</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="G44" t="s">
-        <v>427</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="G45" t="s">
-        <v>428</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="F46" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="G46" t="s">
-        <v>429</v>
+        <v>327</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>480</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E47" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="F47" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="F48" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="G48" t="s">
-        <v>430</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" t="s">
         <v>155</v>
       </c>
-      <c r="C49" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" t="s">
-        <v>221</v>
-      </c>
-      <c r="E49" t="s">
-        <v>254</v>
-      </c>
       <c r="F49" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="G49" t="s">
-        <v>431</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E50" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="F50" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="G50" t="s">
-        <v>432</v>
+        <v>330</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>481</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="E51" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="F51" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>482</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
         <v>58</v>
       </c>
-      <c r="B52" t="s">
-        <v>157</v>
-      </c>
       <c r="C52" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="F52" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="G52" t="s">
-        <v>433</v>
+        <v>331</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>483</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="B53" t="s">
-        <v>158</v>
-      </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="F53" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="G53" t="s">
-        <v>434</v>
+        <v>332</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>484</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
         <v>60</v>
       </c>
-      <c r="B54" t="s">
-        <v>159</v>
-      </c>
       <c r="D54" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="F54" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="G54" t="s">
-        <v>435</v>
+        <v>333</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>485</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
         <v>61</v>
       </c>
-      <c r="B55" t="s">
-        <v>160</v>
-      </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F55" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="G55" t="s">
-        <v>436</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
         <v>62</v>
       </c>
-      <c r="B56" t="s">
-        <v>161</v>
-      </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E56" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="F56" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G56" t="s">
-        <v>437</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
         <v>63</v>
       </c>
-      <c r="B57" t="s">
-        <v>162</v>
-      </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E57" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="F57" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="G57" t="s">
-        <v>438</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="B58" t="s">
-        <v>163</v>
-      </c>
       <c r="C58" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E58" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="F58" t="s">
-        <v>352</v>
+        <v>237</v>
       </c>
       <c r="G58" t="s">
-        <v>439</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="B59" t="s">
-        <v>164</v>
-      </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="F59" t="s">
-        <v>353</v>
+        <v>252</v>
       </c>
       <c r="G59" t="s">
-        <v>440</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
         <v>66</v>
       </c>
-      <c r="B60" t="s">
-        <v>165</v>
-      </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="F60" t="s">
-        <v>354</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
         <v>67</v>
       </c>
-      <c r="B61" t="s">
-        <v>166</v>
-      </c>
       <c r="C61" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E61" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="F61" t="s">
-        <v>355</v>
+        <v>254</v>
       </c>
       <c r="G61" t="s">
-        <v>441</v>
+        <v>339</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>486</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
         <v>68</v>
       </c>
-      <c r="B62" t="s">
-        <v>167</v>
-      </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E62" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="F62" t="s">
-        <v>356</v>
+        <v>255</v>
       </c>
       <c r="G62" t="s">
-        <v>442</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="B63" t="s">
-        <v>168</v>
-      </c>
       <c r="C63" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="F63" t="s">
-        <v>357</v>
+        <v>256</v>
       </c>
       <c r="G63" t="s">
-        <v>443</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
         <v>70</v>
       </c>
-      <c r="B64" t="s">
-        <v>169</v>
-      </c>
       <c r="C64" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="F64" t="s">
-        <v>358</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
         <v>71</v>
       </c>
-      <c r="B65" t="s">
-        <v>170</v>
-      </c>
       <c r="C65" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="F65" t="s">
-        <v>359</v>
+        <v>258</v>
       </c>
       <c r="G65" t="s">
-        <v>444</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
         <v>72</v>
       </c>
-      <c r="B66" t="s">
-        <v>171</v>
-      </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D66" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E66" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="F66" t="s">
-        <v>360</v>
+        <v>259</v>
       </c>
       <c r="G66" t="s">
-        <v>445</v>
+        <v>343</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>487</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
         <v>73</v>
       </c>
-      <c r="B67" t="s">
-        <v>172</v>
-      </c>
       <c r="C67" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E67" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="F67" t="s">
-        <v>361</v>
+        <v>260</v>
       </c>
       <c r="G67" t="s">
-        <v>446</v>
+        <v>344</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>488</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
         <v>74</v>
       </c>
-      <c r="B68" t="s">
-        <v>173</v>
-      </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E68" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="F68" t="s">
-        <v>362</v>
+        <v>261</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>489</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
         <v>75</v>
       </c>
-      <c r="B69" t="s">
-        <v>174</v>
-      </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D69" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E69" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="F69" t="s">
-        <v>363</v>
+        <v>202</v>
       </c>
       <c r="G69" t="s">
-        <v>447</v>
+        <v>345</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>490</v>
+        <v>383</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
         <v>76</v>
       </c>
-      <c r="B70" t="s">
-        <v>175</v>
-      </c>
       <c r="C70" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D70" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E70" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="F70" t="s">
-        <v>364</v>
+        <v>262</v>
       </c>
       <c r="G70" t="s">
-        <v>448</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
         <v>77</v>
       </c>
-      <c r="B71" t="s">
-        <v>176</v>
-      </c>
       <c r="C71" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D71" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E71" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="F71" t="s">
-        <v>365</v>
+        <v>263</v>
       </c>
       <c r="G71" t="s">
-        <v>449</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
         <v>78</v>
       </c>
-      <c r="B72" t="s">
-        <v>177</v>
-      </c>
       <c r="C72" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E72" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>366</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
         <v>79</v>
       </c>
-      <c r="B73" t="s">
-        <v>178</v>
-      </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D73" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="F73" t="s">
-        <v>367</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
         <v>80</v>
       </c>
-      <c r="B74" t="s">
-        <v>179</v>
-      </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="F74" t="s">
-        <v>368</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
         <v>81</v>
       </c>
-      <c r="B75" t="s">
-        <v>180</v>
-      </c>
       <c r="C75" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D75" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="E75" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="F75" t="s">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="G75" t="s">
-        <v>450</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="B76" t="s">
-        <v>181</v>
-      </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D76" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E76" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="F76" t="s">
-        <v>370</v>
+        <v>268</v>
       </c>
       <c r="G76" t="s">
-        <v>451</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
         <v>83</v>
       </c>
-      <c r="B77" t="s">
-        <v>182</v>
-      </c>
       <c r="C77" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="F77" t="s">
-        <v>371</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
         <v>84</v>
       </c>
-      <c r="B78" t="s">
-        <v>183</v>
-      </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="F78" t="s">
-        <v>372</v>
+        <v>270</v>
       </c>
       <c r="G78" t="s">
-        <v>452</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="B79" t="s">
-        <v>184</v>
-      </c>
       <c r="C79" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D79" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="E79" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="F79" t="s">
-        <v>373</v>
+        <v>271</v>
       </c>
       <c r="G79" t="s">
-        <v>453</v>
+        <v>351</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
         <v>86</v>
       </c>
-      <c r="B80" t="s">
-        <v>185</v>
-      </c>
       <c r="C80" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D80" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E80" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="F80" t="s">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="G80" t="s">
-        <v>454</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="B81" t="s">
-        <v>186</v>
-      </c>
       <c r="C81" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D81" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E81" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="F81" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
       <c r="G81" t="s">
-        <v>455</v>
+        <v>353</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>492</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
         <v>88</v>
       </c>
-      <c r="B82" t="s">
-        <v>187</v>
-      </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D82" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E82" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="F82" t="s">
-        <v>376</v>
+        <v>274</v>
       </c>
       <c r="G82" t="s">
-        <v>456</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
         <v>89</v>
       </c>
-      <c r="B83" t="s">
-        <v>188</v>
-      </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D83" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E83" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="F83" t="s">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="G83" t="s">
-        <v>457</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
         <v>90</v>
       </c>
-      <c r="B84" t="s">
-        <v>189</v>
-      </c>
       <c r="C84" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D84" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E84" t="s">
+        <v>177</v>
+      </c>
+      <c r="F84" t="s">
         <v>276</v>
       </c>
-      <c r="F84" t="s">
-        <v>378</v>
-      </c>
       <c r="G84" t="s">
-        <v>458</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
         <v>91</v>
       </c>
-      <c r="B85" t="s">
-        <v>190</v>
-      </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D85" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E85" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="F85" t="s">
-        <v>379</v>
+        <v>277</v>
       </c>
       <c r="G85" t="s">
-        <v>459</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
         <v>92</v>
       </c>
-      <c r="B86" t="s">
-        <v>191</v>
-      </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E86" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="F86" t="s">
-        <v>380</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
         <v>93</v>
       </c>
-      <c r="B87" t="s">
-        <v>192</v>
-      </c>
       <c r="C87" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D87" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E87" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="F87" t="s">
-        <v>381</v>
+        <v>279</v>
       </c>
       <c r="G87" t="s">
-        <v>460</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
         <v>94</v>
       </c>
-      <c r="B88" t="s">
-        <v>193</v>
-      </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D88" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E88" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="F88" t="s">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="G88" t="s">
-        <v>461</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
         <v>95</v>
       </c>
-      <c r="B89" t="s">
-        <v>194</v>
-      </c>
       <c r="C89" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D89" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E89" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="F89" t="s">
-        <v>383</v>
+        <v>281</v>
       </c>
       <c r="G89" t="s">
-        <v>462</v>
+        <v>360</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
         <v>96</v>
       </c>
-      <c r="B90" t="s">
-        <v>195</v>
-      </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D90" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E90" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="F90" t="s">
-        <v>384</v>
+        <v>282</v>
       </c>
       <c r="G90" t="s">
-        <v>463</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
         <v>97</v>
       </c>
-      <c r="B91" t="s">
-        <v>196</v>
-      </c>
       <c r="D91" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E91" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="F91" t="s">
-        <v>385</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
         <v>98</v>
       </c>
-      <c r="B92" t="s">
-        <v>197</v>
-      </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="F92" t="s">
-        <v>386</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
         <v>99</v>
       </c>
-      <c r="B93" t="s">
-        <v>198</v>
-      </c>
       <c r="C93" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E93" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="F93" t="s">
-        <v>387</v>
+        <v>285</v>
       </c>
       <c r="G93" t="s">
-        <v>464</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
         <v>100</v>
       </c>
-      <c r="B94" t="s">
-        <v>199</v>
-      </c>
       <c r="C94" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E94" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
         <v>108</v>
       </c>
-      <c r="C95" t="s">
-        <v>207</v>
-      </c>
       <c r="D95" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E95" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="F95" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G95" t="s">
-        <v>465</v>
+        <v>363</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>494</v>
+        <v>386</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D96" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E96" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="F96" t="s">
-        <v>389</v>
+        <v>287</v>
       </c>
       <c r="G96" t="s">
-        <v>466</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D97" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E97" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="F97" t="s">
-        <v>390</v>
+        <v>288</v>
       </c>
       <c r="G97" t="s">
-        <v>467</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D98" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E98" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="F98" t="s">
-        <v>391</v>
+        <v>289</v>
       </c>
       <c r="G98" t="s">
-        <v>468</v>
+        <v>366</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>495</v>
+        <v>371</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D99" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E99" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="F99" t="s">
-        <v>392</v>
+        <v>290</v>
       </c>
       <c r="G99" t="s">
-        <v>469</v>
+        <v>367</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="E100" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="F100" t="s">
-        <v>393</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" t="s">
         <v>107</v>
       </c>
-      <c r="B101" t="s">
-        <v>205</v>
-      </c>
-      <c r="C101" t="s">
-        <v>206</v>
-      </c>
       <c r="D101" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="E101" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>394</v>
+        <v>292</v>
       </c>
       <c r="G101" t="s">
-        <v>470</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
